--- a/Documents/Data/Business/Business.xlsx
+++ b/Documents/Data/Business/Business.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>engliah</t>
-  </si>
-  <si>
     <t>Scott Pape</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>John Wiley &amp; Sons Inc</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>English</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +219,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -247,6 +256,9 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,25 +573,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="32.21875" customWidth="1"/>
-    <col min="9" max="9" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,310 +608,344 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8">
+        <v>9780730324218</v>
+      </c>
+      <c r="G2" s="4">
+        <v>16.32</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42713</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>16.32</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42713</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="8">
+        <v>9781473611528</v>
+      </c>
+      <c r="G3" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>42138</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="G3" s="5">
-        <v>42138</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9781439199190</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.69</v>
+      </c>
+      <c r="H4" s="5">
+        <v>40680</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.69</v>
-      </c>
-      <c r="G4" s="5">
-        <v>40680</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9780060555665</v>
+      </c>
+      <c r="G5" s="4">
+        <v>17.05</v>
+      </c>
+      <c r="H5" s="5">
+        <v>38769</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4">
-        <v>17.05</v>
-      </c>
-      <c r="G5" s="5">
-        <v>38769</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9780975011300</v>
+      </c>
+      <c r="G6" s="4">
+        <v>16.37</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38108</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4">
-        <v>16.37</v>
-      </c>
-      <c r="G6" s="5">
-        <v>38108</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9780670921607</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17.14</v>
+      </c>
+      <c r="H7" s="5">
+        <v>40836</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4">
-        <v>17.14</v>
-      </c>
-      <c r="G7" s="5">
-        <v>40836</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9781472103536</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10.44</v>
+      </c>
+      <c r="H8" s="5">
+        <v>41585</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10.44</v>
-      </c>
-      <c r="G8" s="5">
-        <v>41585</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9783899555370</v>
+      </c>
+      <c r="G9" s="4">
+        <v>48.34</v>
+      </c>
+      <c r="H9" s="5">
+        <v>41894</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4">
-        <v>48.34</v>
-      </c>
-      <c r="G9" s="5">
-        <v>41894</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9780091929114</v>
+      </c>
+      <c r="G10" s="4">
+        <v>16.09</v>
+      </c>
+      <c r="H10" s="5">
+        <v>41439</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4">
-        <v>16.09</v>
-      </c>
-      <c r="G10" s="5">
-        <v>41439</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9781118156315</v>
+      </c>
+      <c r="G11" s="4">
+        <v>21.09</v>
+      </c>
+      <c r="H11" s="5">
+        <v>41000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4">
-        <v>21.09</v>
-      </c>
-      <c r="G11" s="5">
-        <v>41000</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>